--- a/runtime/export/jkxm_cktsba.xlsx
+++ b/runtime/export/jkxm_cktsba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection lockStructure="1"/>
+  <workbookProtection workbookPassword="EC63" lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="21288" windowHeight="10535"/>
   </bookViews>
@@ -28,10 +28,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -46,6 +46,21 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -64,9 +79,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,83 +133,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -164,30 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,84 +202,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -304,25 +346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,42 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +426,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -433,16 +444,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -463,15 +474,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -487,21 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -511,13 +498,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1025,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection password="EC63" sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/runtime/export/jkxm_cktsba.xlsx
+++ b/runtime/export/jkxm_cktsba.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection workbookPassword="EC63" lockStructure="1"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView windowWidth="21288" windowHeight="10535"/>
   </bookViews>
@@ -28,10 +28,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -50,7 +50,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -58,7 +58,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,6 +79,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -94,61 +149,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -157,30 +181,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +202,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -220,60 +298,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,12 +340,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -341,24 +359,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +424,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,16 +448,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -470,6 +474,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,30 +521,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,43 +541,43 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -586,88 +586,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1025,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="EC63" sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
